--- a/actividades/convolucion.xlsx
+++ b/actividades/convolucion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo-ogh\Documents\09_semestre\03_inteligencia_artificial\actividades_ia\actividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{032905A3-1BC9-4AD8-BB85-174F85685FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FC660D-4AA7-46D5-A7F0-2B424D35D997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FC7A9434-BFE3-408D-BD60-A3D696ADC982}"/>
   </bookViews>
@@ -74,9 +74,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,18 +414,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BDD812-6F66-4D00-9CEF-0A459B2CB94A}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16" width="6.28515625" customWidth="1"/>
+    <col min="1" max="12" width="6.28515625" customWidth="1"/>
+    <col min="13" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -442,240 +447,419 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="M2">
         <f>($H$3*A1)+($I$3*B1)+($J$3*C1)+($H$4*A2)+($I$4*B2)+($J$4*C2)+($H$5*A3)+($I$5*B3)+($J$5*C3)</f>
-        <v>19.555555555555554</v>
+        <v>-0.6</v>
       </c>
       <c r="N2">
         <f t="shared" ref="N2:P2" si="0">($H$3*B1)+($I$3*C1)+($J$3*D1)+($H$4*B2)+($I$4*C2)+($J$4*D2)+($H$5*B3)+($I$5*C3)+($J$5*D3)</f>
-        <v>27.555555555555554</v>
+        <v>-0.6</v>
       </c>
       <c r="O2">
         <f t="shared" si="0"/>
-        <v>43.55555555555555</v>
+        <v>0.6</v>
       </c>
       <c r="P2">
         <f t="shared" si="0"/>
-        <v>26.888888888888886</v>
+        <v>0.6</v>
+      </c>
+      <c r="W2">
+        <f>($H$3*K1)+($I$3*L1)+($J$3*M1)+($H$4*K2)+($I$4*L2)+($J$4*M2)+($H$5*K3)+($I$5*L3)+($J$5*M3)</f>
+        <v>2.4</v>
+      </c>
+      <c r="X2">
+        <f t="shared" ref="X2:X6" si="1">($H$3*L1)+($I$3*M1)+($J$3*N1)+($H$4*L2)+($I$4*M2)+($J$4*N2)+($H$5*L3)+($I$5*M3)+($J$5*N3)</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" ref="Y2:Y6" si="2">($H$3*M1)+($I$3*N1)+($J$3*O1)+($H$4*M2)+($I$4*N2)+($J$4*O2)+($H$5*M3)+($I$5*N3)+($J$5*O3)</f>
+        <v>-4.1999999999999993</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" ref="Z2:Z6" si="3">($H$3*N1)+($I$3*O1)+($J$3*P1)+($H$4*N2)+($I$4*O2)+($J$4*P2)+($H$5*N3)+($I$5*O3)+($J$5*P3)</f>
+        <v>-4.2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>130</v>
+        <v>0.6</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>0.6</v>
       </c>
       <c r="E3">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>0.1111111111111111</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>0.1111111111111111</v>
+        <v>-1</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M6" si="1">($H$3*A2)+($I$3*B2)+($J$3*C2)+($H$4*A3)+($I$4*B3)+($J$4*C3)+($H$5*A4)+($I$5*B4)+($J$5*C4)</f>
-        <v>22.333333333333329</v>
+        <f t="shared" ref="M3:M6" si="4">($H$3*A2)+($I$3*B2)+($J$3*C2)+($H$4*A3)+($I$4*B3)+($J$4*C3)+($H$5*A4)+($I$5*B4)+($J$5*C4)</f>
+        <v>-1.2</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N6" si="2">($H$3*B2)+($I$3*C2)+($J$3*D2)+($H$4*B3)+($I$4*C3)+($J$4*D3)+($H$5*B4)+($I$5*C4)+($J$5*D4)</f>
-        <v>31.444444444444439</v>
+        <f t="shared" ref="N3:N6" si="5">($H$3*B2)+($I$3*C2)+($J$3*D2)+($H$4*B3)+($I$4*C3)+($J$4*D3)+($H$5*B4)+($I$5*C4)+($J$5*D4)</f>
+        <v>-0.6</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O6" si="3">($H$3*C2)+($I$3*D2)+($J$3*E2)+($H$4*C3)+($I$4*D3)+($J$4*E3)+($H$5*C4)+($I$5*D4)+($J$5*E4)</f>
-        <v>47.888888888888886</v>
+        <f t="shared" ref="O3:O6" si="6">($H$3*C2)+($I$3*D2)+($J$3*E2)+($H$4*C3)+($I$4*D3)+($J$4*E3)+($H$5*C4)+($I$5*D4)+($J$5*E4)</f>
+        <v>0.6</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P6" si="4">($H$3*D2)+($I$3*E2)+($J$3*F2)+($H$4*D3)+($I$4*E3)+($J$4*F3)+($H$5*D4)+($I$5*E4)+($J$5*F4)</f>
-        <v>29.888888888888886</v>
+        <f t="shared" ref="P3:P6" si="7">($H$3*D2)+($I$3*E2)+($J$3*F2)+($H$4*D3)+($I$4*E3)+($J$4*F3)+($H$5*D4)+($I$5*E4)+($J$5*F4)</f>
+        <v>1.2</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W6" si="8">($H$3*K2)+($I$3*L2)+($J$3*M2)+($H$4*K3)+($I$4*L3)+($J$4*M3)+($H$5*K4)+($I$5*L4)+($J$5*M4)</f>
+        <v>4.2</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="1"/>
+        <v>1.1999999999999997</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="2"/>
+        <v>-5.4</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="3"/>
+        <v>-5.4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>0.6</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>0.6</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>0.1111111111111111</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>0.1111111111111111</v>
+        <v>-2</v>
       </c>
       <c r="M4">
+        <f t="shared" si="4"/>
+        <v>-1.2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="6"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="8"/>
+        <v>4.8</v>
+      </c>
+      <c r="X4">
         <f t="shared" si="1"/>
-        <v>22.55555555555555</v>
-      </c>
-      <c r="N4">
+        <v>-1.7999999999999998</v>
+      </c>
+      <c r="Y4">
         <f t="shared" si="2"/>
-        <v>27.333333333333325</v>
-      </c>
-      <c r="O4">
+        <v>-2.9999999999999991</v>
+      </c>
+      <c r="Z4">
         <f t="shared" si="3"/>
-        <v>38.333333333333329</v>
-      </c>
-      <c r="P4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0.6</v>
+      </c>
+      <c r="C5">
+        <v>0.6</v>
+      </c>
+      <c r="D5">
+        <v>0.6</v>
+      </c>
+      <c r="E5">
+        <v>0.6</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M5">
         <f t="shared" si="4"/>
-        <v>21.111111111111107</v>
+        <v>-1.2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="5"/>
+        <v>1.1999999999999997</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="6"/>
+        <v>-1.2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="8"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="1"/>
+        <v>-4.1999999999999993</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="M5">
+    <row r="6" spans="1:26" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0.6</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.6</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="6"/>
+        <v>-1.2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="8"/>
+        <v>2.4</v>
+      </c>
+      <c r="X6">
         <f t="shared" si="1"/>
-        <v>10.555555555555555</v>
-      </c>
-      <c r="N5">
+        <v>-3.5999999999999996</v>
+      </c>
+      <c r="Y6">
         <f t="shared" si="2"/>
-        <v>16.111111111111111</v>
-      </c>
-      <c r="O5">
+        <v>1.2</v>
+      </c>
+      <c r="Z6">
         <f t="shared" si="3"/>
-        <v>15.222222222222221</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="4"/>
-        <v>10.333333333333332</v>
+        <v>1.1999999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>16</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="1"/>
-        <v>7.7777777777777768</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="2"/>
-        <v>12.222222222222221</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="3"/>
-        <v>10.888888888888889</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="4"/>
-        <v>7.333333333333333</v>
+    <row r="7" spans="1:26" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+    <row r="8" spans="1:26" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <f>MAX(M3:N4)</f>
+        <v>0.6</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ref="N10:O10" si="9">MAX(O3:P4)</f>
+        <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <f t="shared" ref="M12:O12" si="10">MAX(M5:N6)</f>
+        <v>1.2</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B2:E6">
-    <cfRule type="iconSet" priority="1">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:P6">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:Z6">
+    <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -693,15 +877,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:P6">
-    <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="M10:O12">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -717,15 +894,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068D8552EC12C1E409ED22CCF754BC6AE" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="751917e0e33f3160203293d56e9e49af">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7033c577-56c3-4a7d-a811-5810f6018b4e" xmlns:ns4="ca1b7e2e-adb0-4b9b-91af-2a1e9a688f16" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="80e0b0502579206df7e010f1814efa9c" ns3:_="" ns4:_="">
     <xsd:import namespace="7033c577-56c3-4a7d-a811-5810f6018b4e"/>
@@ -952,6 +1120,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -961,14 +1138,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71BE6459-6B62-439F-B7F1-889257774A35}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A030B316-DA5B-4DE7-93E3-37985272C183}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -983,6 +1152,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71BE6459-6B62-439F-B7F1-889257774A35}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
